--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyoryyta\Documents\授業\データベース\final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3480CB85-9F18-48E8-A0E7-31F585C4377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC71BF6-2843-4915-984D-9CCF06FE55CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02632A3D-4A49-4C80-9261-000F744EDC88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -156,24 +156,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LIST(INT)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用履歴</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>user_history</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイテム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -263,16 +245,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>履歴IDを格納する</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>使用個数</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -297,10 +269,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力ミスなどで負数になることもありえる</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -323,6 +291,17 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーID名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_name</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -752,7 +731,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -850,21 +829,23 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1">
+        <v>128</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -920,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -928,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -968,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1">
         <v>8</v>
@@ -994,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -1005,14 +986,12 @@
       <c r="E18" s="1">
         <v>128</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -1020,23 +999,25 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -1044,25 +1025,27 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
@@ -1094,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -1102,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
@@ -1142,13 +1125,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1">
         <v>8</v>
@@ -1162,7 +1145,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -1194,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1">
         <v>8</v>
@@ -1220,16 +1203,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
@@ -1238,7 +1221,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -1246,13 +1229,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>

--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyoryyta\Documents\授業\データベース\final\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreha\Documents\DB_Final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC71BF6-2843-4915-984D-9CCF06FE55CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5229172-686E-4FC0-84F2-9ED502553A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02632A3D-4A49-4C80-9261-000F744EDC88}"/>
+    <workbookView xWindow="-270" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{02632A3D-4A49-4C80-9261-000F744EDC88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -279,29 +279,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日時</t>
+    <t>user_name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>historyset_id</t>
+  </si>
+  <si>
+    <t>historyset_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴セット</t>
     <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>history_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーID名</t>
-    <rPh sb="6" eb="7">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>historyset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴セットID</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>user_name</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -728,27 +738,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1AA3C-6872-472F-BB81-A63CBF95F040}">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
@@ -756,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -764,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -824,15 +833,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -848,7 +857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -860,7 +869,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -872,7 +881,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -884,7 +893,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -896,7 +905,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -904,7 +913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -912,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -970,7 +979,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1020,7 +1029,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1060,7 +1069,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1072,7 +1081,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -1148,23 +1157,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
-        <v>30</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>18</v>
@@ -1172,92 +1183,159 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/テーブル定義書.xlsx
+++ b/docs/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreha\Documents\DB_Final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5229172-686E-4FC0-84F2-9ED502553A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB8EFC0-33E4-4243-AFAD-24AA28E822BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{02632A3D-4A49-4C80-9261-000F744EDC88}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{02632A3D-4A49-4C80-9261-000F744EDC88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE1AA3C-6872-472F-BB81-A63CBF95F040}">
   <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
